--- a/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/AdamsLawIteration.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/AdamsLawIteration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hombo\Documents\Github Repositories\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim Draft 1\Code of Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D03905-3B26-4796-B856-3536AD4C5DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C603FA40-E4FA-4957-80B6-174E053419CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="152">
   <si>
     <t>dt</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>agentControl_ManyFactors</t>
+  </si>
+  <si>
+    <t>heightFactorPower</t>
   </si>
 </sst>
 </file>
@@ -818,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1082,7 +1085,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -1104,105 +1107,102 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
         <v>36</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>118</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>106</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>120</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>121</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
         <v>145</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>144</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B48" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C49" s="6">
         <v>4</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" t="s">
-        <v>140</v>
-      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
         <v>140</v>
@@ -1210,115 +1210,107 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
         <v>137</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>136</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B54" t="s">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C55" s="6">
         <v>0.2</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>124</v>
-      </c>
-      <c r="B55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" t="s">
-        <v>140</v>
-      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C56" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B59" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
         <v>139</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-    </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A62" s="5">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A63" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>38</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C63" s="2">
         <v>0</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A63" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B63" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -1330,8 +1322,15 @@
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A64" s="1"/>
-      <c r="C64" s="2"/>
+      <c r="A64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -1341,253 +1340,257 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A65" s="1"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B66" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
         <v>40</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="3" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A68" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>41</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>134</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
         <v>15</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>45</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>1000</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
         <v>47</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>46</v>
-      </c>
-      <c r="C74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75" t="s">
-        <v>48</v>
       </c>
       <c r="C75">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>22</v>
       </c>
       <c r="B76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" t="s">
         <v>49</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77">
-        <f t="shared" ref="C77" si="0">-5/12*PI()</f>
-        <v>-1.3089969389957472</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>51</v>
       </c>
       <c r="B78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ref="C78" si="0">-5/12*PI()</f>
+        <v>-1.3089969389957472</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79" t="s">
         <v>52</v>
       </c>
-      <c r="C78">
-        <f t="shared" ref="C78" si="1">5/12*PI()</f>
+      <c r="C79">
+        <f t="shared" ref="C79" si="1">5/12*PI()</f>
         <v>1.3089969389957472</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
         <v>54</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>53</v>
       </c>
-      <c r="C79">
-        <f t="shared" ref="C79" si="2">11/6*PI()</f>
+      <c r="C80">
+        <f t="shared" ref="C80" si="2">11/6*PI()</f>
         <v>5.7595865315812871</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C80">
-        <v>-1.8429999999999998E-2</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C81">
-        <v>0.37819999999999998</v>
+        <v>-1.8429999999999998E-2</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82">
+        <v>0.37819999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B83" t="s">
         <v>57</v>
       </c>
-      <c r="C82">
-        <f t="shared" ref="C82" si="3">-2.3782</f>
+      <c r="C83">
+        <f t="shared" ref="C83" si="3">-2.3782</f>
         <v>-2.3782000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
         <v>15</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>97</v>
       </c>
-      <c r="C83">
+      <c r="C84">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B86" t="s">
-        <v>59</v>
-      </c>
-      <c r="C86" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C87" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B89" t="s">
         <v>63</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
         <v>67</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>65</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B90" t="s">
-        <v>68</v>
-      </c>
-      <c r="C90" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
-        <v>69</v>
-      </c>
-      <c r="C91" t="b">
+        <v>68</v>
+      </c>
+      <c r="C91" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
@@ -1595,15 +1598,15 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -1611,39 +1614,36 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B98" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B100" t="s">
-        <v>75</v>
-      </c>
-      <c r="C100" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B102" t="s">
         <v>77</v>
-      </c>
-      <c r="C101">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
-        <v>88</v>
-      </c>
-      <c r="B102" t="s">
-        <v>78</v>
       </c>
       <c r="C102">
         <v>50</v>
@@ -1651,13 +1651,13 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B103" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
@@ -1665,7 +1665,7 @@
         <v>22</v>
       </c>
       <c r="B104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -1673,13 +1673,13 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B105" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C105">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
@@ -1687,21 +1687,21 @@
         <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C106">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C107">
-        <v>8</v>
+        <v>800</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
@@ -1709,7 +1709,7 @@
         <v>92</v>
       </c>
       <c r="B108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C108">
         <v>8</v>
@@ -1717,55 +1717,66 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B109" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C109">
-        <v>8.0000000000000002E-3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B110" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C110">
-        <v>2000</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
+        <v>89</v>
+      </c>
+      <c r="B111" t="s">
+        <v>86</v>
+      </c>
+      <c r="C111">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
         <v>90</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>87</v>
       </c>
-      <c r="C111">
+      <c r="C112">
         <v>4000</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="1" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B114" t="s">
-        <v>94</v>
-      </c>
-      <c r="C114" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
+        <v>94</v>
+      </c>
+      <c r="C115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B116" t="s">
         <v>95</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>96</v>
       </c>
     </row>

--- a/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/AdamsLawIteration.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/AdamsLawIteration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hombo\Documents\Github Repositories\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim Draft 1\Code of Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C603FA40-E4FA-4957-80B6-174E053419CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7646C711-3E4B-45F2-BE37-501D7BCD1DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="127">
   <si>
     <t>dt</t>
   </si>
@@ -75,9 +75,6 @@
     <t>mapSize</t>
   </si>
   <si>
-    <t>[-3000,3000]</t>
-  </si>
-  <si>
     <t>agentCeiling</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>agentSpawnPosRange</t>
   </si>
   <si>
-    <t>[-1000,-1000;1000,1000]</t>
-  </si>
-  <si>
     <t>agentSpawnAltiRange</t>
   </si>
   <si>
@@ -234,9 +228,6 @@
     <t>renderScale</t>
   </si>
   <si>
-    <t>[150;150]</t>
-  </si>
-  <si>
     <t>[scaleX,scaleY]</t>
   </si>
   <si>
@@ -324,114 +315,12 @@
     <t>funcName_findNeighborhood</t>
   </si>
   <si>
-    <t>findNeighborhood_fixedRadius</t>
-  </si>
-  <si>
     <t>collisionKillDistance</t>
   </si>
   <si>
     <t>stopWhenDead</t>
   </si>
   <si>
-    <t>Relative Ascension</t>
-  </si>
-  <si>
-    <t>Relative Height</t>
-  </si>
-  <si>
-    <t>Scales with neighbor radius</t>
-  </si>
-  <si>
-    <t>Height Desire</t>
-  </si>
-  <si>
-    <t>Factor Parameters (LR = linear relationship)</t>
-  </si>
-  <si>
-    <t>Distance</t>
-  </si>
-  <si>
-    <t>sep_heightDesire</t>
-  </si>
-  <si>
-    <t>coh_relativeAscension</t>
-  </si>
-  <si>
-    <t>[0,1]</t>
-  </si>
-  <si>
-    <t>[m/s] bounds of relative ascension for LR</t>
-  </si>
-  <si>
-    <t>bounds of factor magnitude for LR</t>
-  </si>
-  <si>
-    <t>relativeAscensionBounds</t>
-  </si>
-  <si>
-    <t>relativeAscensionMagBounds</t>
-  </si>
-  <si>
-    <t>[m] bounds of height for LR</t>
-  </si>
-  <si>
-    <t>heightDesireBounds</t>
-  </si>
-  <si>
-    <t>[1000,2000]</t>
-  </si>
-  <si>
-    <t>factor magnitude bounds for LR</t>
-  </si>
-  <si>
-    <t>heightDesireMagBounds</t>
-  </si>
-  <si>
-    <t>[1,0]</t>
-  </si>
-  <si>
-    <t>Cohesion's scale for relativeAscension</t>
-  </si>
-  <si>
-    <t>Separation's scale for relativeHeight</t>
-  </si>
-  <si>
-    <t>Cohesion's scale for heightDesire</t>
-  </si>
-  <si>
-    <t>coh_heightDesire</t>
-  </si>
-  <si>
-    <t>sep_relativeHeight</t>
-  </si>
-  <si>
-    <t>Separation's scale for heightDesire</t>
-  </si>
-  <si>
-    <t>Alignment's scale for relativeHeight</t>
-  </si>
-  <si>
-    <t>Alignment's scale for heightDesire</t>
-  </si>
-  <si>
-    <t>align_relativeHeight</t>
-  </si>
-  <si>
-    <t>align_heightDesire</t>
-  </si>
-  <si>
-    <t>Migration's scale for heightDesire</t>
-  </si>
-  <si>
-    <t>mig_heightDesire</t>
-  </si>
-  <si>
-    <t>relativeHeightMagBounds</t>
-  </si>
-  <si>
-    <t>[-1,1]</t>
-  </si>
-  <si>
     <t>neighborFrameSkip</t>
   </si>
   <si>
@@ -447,18 +336,6 @@
     <t>separationHeightWidth</t>
   </si>
   <si>
-    <t>Not used anymore, but needed for rendering</t>
-  </si>
-  <si>
-    <t>Avoidance (Sep. + Align.)</t>
-  </si>
-  <si>
-    <t>avoidPower</t>
-  </si>
-  <si>
-    <t>[1,1]</t>
-  </si>
-  <si>
     <t>render</t>
   </si>
   <si>
@@ -468,28 +345,76 @@
     <t>Show</t>
   </si>
   <si>
-    <t>cohesionAscensionMult</t>
-  </si>
-  <si>
-    <t>Not used, but needed for rendering info</t>
-  </si>
-  <si>
-    <t>[1000,2600]</t>
-  </si>
-  <si>
-    <t>[1,5]</t>
-  </si>
-  <si>
     <t>listNeighborData</t>
   </si>
   <si>
-    <t>[1,4]</t>
-  </si>
-  <si>
-    <t>agentControl_ManyFactors</t>
-  </si>
-  <si>
     <t>heightFactorPower</t>
+  </si>
+  <si>
+    <t>[1600,1600]</t>
+  </si>
+  <si>
+    <t>agentControl_Unified</t>
+  </si>
+  <si>
+    <t>findNeighborhood_KNNInFixedRadius</t>
+  </si>
+  <si>
+    <t>[m/s], agents with relative ascensions less than this are ignored</t>
+  </si>
+  <si>
+    <t>cohesionAscensionIgnore</t>
+  </si>
+  <si>
+    <t>[m/s], maximum perceived relative ascension</t>
+  </si>
+  <si>
+    <t>cohesionAscensionMax</t>
+  </si>
+  <si>
+    <t>ascensionFactorPower</t>
+  </si>
+  <si>
+    <t>cohPower</t>
+  </si>
+  <si>
+    <t>[m], the current agent will try to separate from other agents that are within separationHeightWidth/2 of &lt;current agent height&gt;</t>
+  </si>
+  <si>
+    <t>Separation Force is multiplied by distance^[sepPower]</t>
+  </si>
+  <si>
+    <t>sepPower</t>
+  </si>
+  <si>
+    <t>[m], the current agent will try to align with other agents that are within alignmentHeightWidth/2 of &lt;current agent height&gt;</t>
+  </si>
+  <si>
+    <t>alignmentHeightWidth</t>
+  </si>
+  <si>
+    <t>Alignment Force is multiplied by distance^[sepPower]</t>
+  </si>
+  <si>
+    <t>aliPower</t>
+  </si>
+  <si>
+    <t>migPower</t>
+  </si>
+  <si>
+    <t>on/off</t>
+  </si>
+  <si>
+    <t>followRadius</t>
+  </si>
+  <si>
+    <t>[-2000,2000]</t>
+  </si>
+  <si>
+    <t>[-1500,-1500;1500,1500]</t>
+  </si>
+  <si>
+    <t>[75;75]</t>
   </si>
 </sst>
 </file>
@@ -533,13 +458,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -821,46 +744,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.265625" customWidth="1"/>
+    <col min="1" max="1" width="38.19921875" customWidth="1"/>
     <col min="2" max="2" width="23.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -868,10 +791,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -879,10 +802,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -890,13 +813,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -904,53 +824,47 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="C9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -958,336 +872,428 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
       </c>
       <c r="C15">
         <v>2600</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
         <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
       </c>
       <c r="C22">
         <v>9.81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+      <c r="C34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>115</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>116</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B43" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="1"/>
+      <c r="B41" t="s">
         <v>36</v>
       </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>118</v>
-      </c>
+      <c r="C41" s="2">
+        <v>5.9999999999999999E-24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="1"/>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>145</v>
-      </c>
-      <c r="B46" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="6">
-        <v>4</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>119</v>
-      </c>
-      <c r="B50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" t="s">
-        <v>140</v>
+      <c r="A50" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" t="s">
-        <v>140</v>
+        <v>43</v>
+      </c>
+      <c r="C51">
+        <v>1000</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="C52">
-        <v>2000</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
-        <v>33</v>
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54">
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
       <c r="B55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C55">
+        <f>-1/12*PI()</f>
+        <v>-0.26179938779914941</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" t="s">
-        <v>140</v>
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <f>1/12*PI()</f>
+        <v>0.26179938779914941</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" t="s">
-        <v>140</v>
+        <v>51</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57" si="0">11/6*PI()</f>
+        <v>5.7595865315812871</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58">
+        <v>-1.8429999999999998E-2</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
-        <v>138</v>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59">
+        <v>0.37819999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <f t="shared" ref="C60" si="1">-2.3782</f>
+        <v>-2.3782000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="C61" s="2"/>
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -1297,20 +1303,9 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A63" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="B63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="2">
-        <v>0</v>
+      <c r="A63" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -1322,14 +1317,11 @@
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A64" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="B64" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>107</v>
+        <v>57</v>
+      </c>
+      <c r="C64" t="s">
+        <v>58</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -1341,8 +1333,12 @@
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A65" s="1"/>
-      <c r="C65" s="2"/>
+      <c r="B65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" t="s">
+        <v>60</v>
+      </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -1353,431 +1349,259 @@
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
-        <v>39</v>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
       <c r="B67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67">
+        <v>63</v>
+      </c>
+      <c r="C67" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A71" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B71" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74">
-        <v>1000</v>
+        <v>102</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>47</v>
-      </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>22</v>
-      </c>
       <c r="B76" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77" t="s">
-        <v>49</v>
-      </c>
-      <c r="C77">
-        <v>15</v>
+        <v>103</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>51</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="A78" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80">
         <v>50</v>
       </c>
-      <c r="C78">
-        <f t="shared" ref="C78" si="0">-5/12*PI()</f>
-        <v>-1.3089969389957472</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>51</v>
-      </c>
-      <c r="B79" t="s">
-        <v>52</v>
-      </c>
-      <c r="C79">
-        <f t="shared" ref="C79" si="1">5/12*PI()</f>
-        <v>1.3089969389957472</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80" t="s">
-        <v>53</v>
-      </c>
-      <c r="C80">
-        <f t="shared" ref="C80" si="2">11/6*PI()</f>
-        <v>5.7595865315812871</v>
-      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
       <c r="B81" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C81">
-        <v>-1.8429999999999998E-2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>20</v>
+      </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C82">
-        <v>0.37819999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C83">
-        <f t="shared" ref="C83" si="3">-2.3782</f>
-        <v>-2.3782000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85">
+        <v>550</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
-        <v>58</v>
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
       <c r="B87" t="s">
-        <v>59</v>
-      </c>
-      <c r="C87" t="s">
-        <v>60</v>
+        <v>81</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
       <c r="B88" t="s">
-        <v>61</v>
-      </c>
-      <c r="C88" t="s">
-        <v>62</v>
+        <v>82</v>
+      </c>
+      <c r="C88">
+        <v>0.01</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
       <c r="B89" t="s">
-        <v>63</v>
-      </c>
-      <c r="C89" t="s">
-        <v>64</v>
+        <v>83</v>
+      </c>
+      <c r="C89">
+        <v>600</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" t="s">
-        <v>66</v>
+        <v>84</v>
+      </c>
+      <c r="C90">
+        <v>600</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B91" t="s">
-        <v>68</v>
-      </c>
-      <c r="C91" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B92" t="s">
-        <v>69</v>
-      </c>
-      <c r="C92" t="b">
-        <v>1</v>
+      <c r="A92" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
-        <v>70</v>
-      </c>
-      <c r="C93" t="b">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
-        <v>71</v>
-      </c>
-      <c r="C94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B95" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B96" t="s">
-        <v>73</v>
-      </c>
-      <c r="C96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B97" t="s">
-        <v>143</v>
-      </c>
-      <c r="C97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B98" t="s">
-        <v>148</v>
-      </c>
-      <c r="C98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B101" t="s">
-        <v>75</v>
-      </c>
-      <c r="C101" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B102" t="s">
-        <v>77</v>
-      </c>
-      <c r="C102">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
-        <v>88</v>
-      </c>
-      <c r="B103" t="s">
-        <v>78</v>
-      </c>
-      <c r="C103">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
-        <v>22</v>
-      </c>
-      <c r="B104" t="s">
-        <v>79</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>22</v>
-      </c>
-      <c r="B105" t="s">
-        <v>80</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" t="s">
-        <v>81</v>
-      </c>
-      <c r="C106">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
-        <v>15</v>
-      </c>
-      <c r="B107" t="s">
-        <v>82</v>
-      </c>
-      <c r="C107">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
         <v>92</v>
       </c>
-      <c r="B108" t="s">
-        <v>83</v>
-      </c>
-      <c r="C108">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
-        <v>92</v>
-      </c>
-      <c r="B109" t="s">
-        <v>84</v>
-      </c>
-      <c r="C109">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
-        <v>91</v>
-      </c>
-      <c r="B110" t="s">
-        <v>85</v>
-      </c>
-      <c r="C110">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
-        <v>89</v>
-      </c>
-      <c r="B111" t="s">
-        <v>86</v>
-      </c>
-      <c r="C111">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
-        <v>90</v>
-      </c>
-      <c r="B112" t="s">
-        <v>87</v>
-      </c>
-      <c r="C112">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B115" t="s">
-        <v>94</v>
-      </c>
-      <c r="C115" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B116" t="s">
-        <v>95</v>
-      </c>
-      <c r="C116" t="s">
-        <v>96</v>
+      <c r="C94" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/AdamsLawIteration.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/AdamsLawIteration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hombo\Documents\Github Repositories\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim Draft 1\Code of Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7646C711-3E4B-45F2-BE37-501D7BCD1DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E1398C-2466-483C-862F-0C516B3D9EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -897,12 +897,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -913,7 +913,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -924,7 +924,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -935,7 +935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -946,31 +946,28 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="D26">
-        <v>100</v>
-      </c>
-      <c r="E26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>104</v>
       </c>
@@ -978,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -989,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -997,18 +994,18 @@
         <v>111</v>
       </c>
       <c r="C29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>112</v>
       </c>
       <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>113</v>
       </c>
@@ -1016,21 +1013,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0.05</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -1041,7 +1040,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -1052,26 +1051,23 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="2">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -1082,7 +1078,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -1093,12 +1089,12 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
         <v>36</v>
@@ -1107,7 +1103,7 @@
         <v>5.9999999999999999E-24</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>121</v>
@@ -1116,12 +1112,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>38</v>
       </c>
@@ -1129,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -1140,12 +1136,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>98</v>
       </c>
